--- a/Iniciação Cientifica - Eng Eletrica UFF/notebooks/algoritimos evolutivos/results.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/notebooks/algoritimos evolutivos/results.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>253.3388790447433</v>
+        <v>222.5038266300645</v>
       </c>
       <c r="D2" t="n">
-        <v>188.6145177320997</v>
+        <v>171.3476928855731</v>
       </c>
       <c r="E2" t="n">
-        <v>132.4752105097857</v>
+        <v>113.8365501792393</v>
       </c>
       <c r="F2" t="n">
-        <v>253.3388790447433</v>
+        <v>222.5038266300645</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>195.3892088243179</v>
+        <v>174.4144048116437</v>
       </c>
       <c r="D3" t="n">
-        <v>160.3277879032517</v>
+        <v>141.3629446639614</v>
       </c>
       <c r="E3" t="n">
-        <v>115.499136059262</v>
+        <v>121.0896485066409</v>
       </c>
       <c r="F3" t="n">
-        <v>195.3892088243179</v>
+        <v>174.4144048116437</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>186.806692508047</v>
+        <v>146.4205995890969</v>
       </c>
       <c r="D4" t="n">
-        <v>150.2469552052802</v>
+        <v>126.7323769362918</v>
       </c>
       <c r="E4" t="n">
-        <v>112.7831465470829</v>
+        <v>108.2612146810182</v>
       </c>
       <c r="F4" t="n">
-        <v>186.806692508047</v>
+        <v>146.4205995890969</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>173.2777400851933</v>
+        <v>131.1774723004139</v>
       </c>
       <c r="D5" t="n">
-        <v>130.1155560974065</v>
+        <v>117.339287622995</v>
       </c>
       <c r="E5" t="n">
-        <v>98.55899741637397</v>
+        <v>108.2612146810182</v>
       </c>
       <c r="F5" t="n">
-        <v>173.2777400851933</v>
+        <v>131.1774723004139</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5682912736788</v>
+        <v>122.5478965578403</v>
       </c>
       <c r="D6" t="n">
-        <v>109.2992282577023</v>
+        <v>112.5078792382008</v>
       </c>
       <c r="E6" t="n">
-        <v>94.79669091799659</v>
+        <v>108.2612146810182</v>
       </c>
       <c r="F6" t="n">
-        <v>128.5682912736788</v>
+        <v>122.5478965578403</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7831465470829</v>
+        <v>182.0399657728509</v>
       </c>
       <c r="D7" t="n">
-        <v>101.8552650694311</v>
+        <v>113.1592776627914</v>
       </c>
       <c r="E7" t="n">
-        <v>94.79669091799659</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="F7" t="n">
-        <v>112.7831465470829</v>
+        <v>182.0399657728509</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>112.3717238629465</v>
+        <v>112.48089111459</v>
       </c>
       <c r="D8" t="n">
-        <v>99.03446238217168</v>
+        <v>106.4218796060599</v>
       </c>
       <c r="E8" t="n">
-        <v>84.59055955073964</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="F8" t="n">
-        <v>112.3717238629465</v>
+        <v>112.48089111459</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3641907561728</v>
+        <v>121.9914683405847</v>
       </c>
       <c r="D9" t="n">
-        <v>93.70903310448088</v>
+        <v>102.8687003853074</v>
       </c>
       <c r="E9" t="n">
-        <v>78.28801357105957</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="F9" t="n">
-        <v>105.3641907561728</v>
+        <v>121.9914683405847</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8521548980796</v>
+        <v>108.2612146810182</v>
       </c>
       <c r="D10" t="n">
-        <v>85.47308195520434</v>
+        <v>95.35806150631615</v>
       </c>
       <c r="E10" t="n">
-        <v>71.03988998923754</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8521548980796</v>
+        <v>108.2612146810182</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>96.6725095574683</v>
+        <v>108.2612146810182</v>
       </c>
       <c r="D11" t="n">
-        <v>78.94644843415639</v>
+        <v>93.73942365184531</v>
       </c>
       <c r="E11" t="n">
-        <v>60.20742741450519</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="F11" t="n">
-        <v>96.6725095574683</v>
+        <v>108.2612146810182</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>84.59055955073964</v>
+        <v>141.048635979512</v>
       </c>
       <c r="D12" t="n">
-        <v>73.4030551855025</v>
+        <v>94.19717373629902</v>
       </c>
       <c r="E12" t="n">
-        <v>60.20742741450519</v>
+        <v>90.42974523554648</v>
       </c>
       <c r="F12" t="n">
-        <v>84.59055955073964</v>
+        <v>141.048635979512</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>82.1949328071665</v>
+        <v>99.1241859542731</v>
       </c>
       <c r="D13" t="n">
-        <v>67.42336330645894</v>
+        <v>91.73156503347677</v>
       </c>
       <c r="E13" t="n">
-        <v>60.20742741450519</v>
+        <v>90.42974523554648</v>
       </c>
       <c r="F13" t="n">
-        <v>82.1949328071665</v>
+        <v>99.1241859542731</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>80.22230887523617</v>
+        <v>91.58587558487176</v>
       </c>
       <c r="D14" t="n">
-        <v>64.62869677027096</v>
+        <v>90.95000389274284</v>
       </c>
       <c r="E14" t="n">
-        <v>60.20742741450519</v>
+        <v>90.42974523554648</v>
       </c>
       <c r="F14" t="n">
-        <v>80.22230887523617</v>
+        <v>91.58587558487176</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>71.03988998923754</v>
+        <v>90.42974523554648</v>
       </c>
       <c r="D15" t="n">
-        <v>61.4705493367946</v>
+        <v>89.73348537911041</v>
       </c>
       <c r="E15" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F15" t="n">
-        <v>71.03988998923754</v>
+        <v>90.42974523554648</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>60.20742741450519</v>
+        <v>96.89104388883192</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2074274145052</v>
+        <v>88.24294327444467</v>
       </c>
       <c r="E16" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F16" t="n">
-        <v>60.20742741450519</v>
+        <v>96.89104388883192</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>65.28364344911171</v>
+        <v>100.3893211705345</v>
       </c>
       <c r="D17" t="n">
-        <v>60.46123821623551</v>
+        <v>82.57260575506284</v>
       </c>
       <c r="E17" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F17" t="n">
-        <v>65.28364344911171</v>
+        <v>100.3893211705345</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>61.77303710532383</v>
+        <v>90.42974523554648</v>
       </c>
       <c r="D18" t="n">
-        <v>60.28570789904612</v>
+        <v>78.32965499718323</v>
       </c>
       <c r="E18" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F18" t="n">
-        <v>61.77303710532383</v>
+        <v>90.42974523554648</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>60.20742741450519</v>
+        <v>86.10789376059384</v>
       </c>
       <c r="D19" t="n">
-        <v>60.2074274145052</v>
+        <v>76.9847153895132</v>
       </c>
       <c r="E19" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F19" t="n">
-        <v>60.20742741450519</v>
+        <v>86.10789376059384</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D20" t="n">
-        <v>59.93847209973431</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E20" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F20" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>60.20742741450519</v>
+        <v>84.82878501477897</v>
       </c>
       <c r="D21" t="n">
-        <v>59.40056147019256</v>
+        <v>76.92075995222245</v>
       </c>
       <c r="E21" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F21" t="n">
-        <v>60.20742741450519</v>
+        <v>84.82878501477897</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D22" t="n">
-        <v>58.59369552587994</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E22" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F22" t="n">
-        <v>60.20742741450519</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>74.72011449621706</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D23" t="n">
-        <v>57.16768736179853</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E23" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F23" t="n">
-        <v>74.72011449621706</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>70.5069195682558</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D24" t="n">
-        <v>55.61225104154609</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E24" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F24" t="n">
-        <v>70.5069195682558</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>84.60766872454423</v>
+        <v>97.01619731780063</v>
       </c>
       <c r="D25" t="n">
-        <v>56.31728849936051</v>
+        <v>77.68869913321001</v>
       </c>
       <c r="E25" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F25" t="n">
-        <v>84.60766872454423</v>
+        <v>97.01619731780063</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D26" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E26" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F26" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="27">
@@ -968,16 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>54.82832111908768</v>
+        <v>83.72732560973861</v>
       </c>
       <c r="D27" t="n">
-        <v>54.82832111908768</v>
+        <v>76.86568698197044</v>
       </c>
       <c r="E27" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F27" t="n">
-        <v>54.82832111908768</v>
+        <v>83.72732560973861</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>73.24904013132665</v>
+        <v>114.1922610841515</v>
       </c>
       <c r="D28" t="n">
-        <v>56.28146870330748</v>
+        <v>78.38893375569108</v>
       </c>
       <c r="E28" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F28" t="n">
-        <v>73.24904013132665</v>
+        <v>114.1922610841515</v>
       </c>
     </row>
     <row r="29">
@@ -1008,16 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>54.82832111908768</v>
+        <v>81.8391116747115</v>
       </c>
       <c r="D29" t="n">
-        <v>54.82832111908768</v>
+        <v>76.77127628521909</v>
       </c>
       <c r="E29" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F29" t="n">
-        <v>54.82832111908768</v>
+        <v>81.8391116747115</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D30" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E30" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F30" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="31">
@@ -1048,16 +1048,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D31" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E31" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F31" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="32">
@@ -1068,16 +1068,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>82.19341471549447</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D32" t="n">
-        <v>56.44418756332732</v>
+        <v>76.50454810682474</v>
       </c>
       <c r="E32" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F32" t="n">
-        <v>82.19341471549447</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="33">
@@ -1088,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>71.46295232250733</v>
+        <v>92.16310994695442</v>
       </c>
       <c r="D33" t="n">
-        <v>55.66005267925866</v>
+        <v>77.77176636166342</v>
       </c>
       <c r="E33" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F33" t="n">
-        <v>71.46295232250733</v>
+        <v>92.16310994695442</v>
       </c>
     </row>
     <row r="34">
@@ -1108,16 +1108,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>54.82832111908768</v>
+        <v>93.12688120245461</v>
       </c>
       <c r="D34" t="n">
-        <v>54.42790235625661</v>
+        <v>77.33566476160624</v>
       </c>
       <c r="E34" t="n">
-        <v>46.81994586246633</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="F34" t="n">
-        <v>54.82832111908768</v>
+        <v>93.12688120245461</v>
       </c>
     </row>
     <row r="35">
@@ -1128,16 +1128,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D35" t="n">
-        <v>54.02748359342554</v>
+        <v>75.96436187189785</v>
       </c>
       <c r="E35" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F35" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="36">
@@ -1148,16 +1148,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D36" t="n">
-        <v>52.02538977927021</v>
+        <v>75.42417563697094</v>
       </c>
       <c r="E36" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F36" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="37">
@@ -1168,16 +1168,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>54.82832111908768</v>
+        <v>130.2460108669119</v>
       </c>
       <c r="D37" t="n">
-        <v>52.02538977927021</v>
+        <v>76.51595579760007</v>
       </c>
       <c r="E37" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F37" t="n">
-        <v>54.82832111908768</v>
+        <v>130.2460108669119</v>
       </c>
     </row>
     <row r="38">
@@ -1188,16 +1188,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
       <c r="D38" t="n">
-        <v>49.6228772022838</v>
+        <v>69.48212705277507</v>
       </c>
       <c r="E38" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F38" t="n">
-        <v>54.82832111908768</v>
+        <v>76.50454810682473</v>
       </c>
     </row>
     <row r="39">
@@ -1208,16 +1208,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>46.81994586246633</v>
+        <v>98.19868483139082</v>
       </c>
       <c r="D39" t="n">
-        <v>46.81994586246632</v>
+        <v>67.32571647944199</v>
       </c>
       <c r="E39" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F39" t="n">
-        <v>46.81994586246633</v>
+        <v>98.19868483139082</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>97.54596428747658</v>
+        <v>67.9769597018273</v>
       </c>
       <c r="D40" t="n">
-        <v>49.35624678371683</v>
+        <v>65.82660818671516</v>
       </c>
       <c r="E40" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F40" t="n">
-        <v>97.54596428747658</v>
+        <v>67.9769597018273</v>
       </c>
     </row>
     <row r="41">
@@ -1248,16 +1248,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>66.29644109354605</v>
+        <v>73.29643858250877</v>
       </c>
       <c r="D41" t="n">
-        <v>47.90840885732259</v>
+        <v>66.08060416699789</v>
       </c>
       <c r="E41" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F41" t="n">
-        <v>66.29644109354605</v>
+        <v>73.29643858250877</v>
       </c>
     </row>
     <row r="42">
@@ -1268,16 +1268,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D42" t="n">
-        <v>46.81994586246632</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E42" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F42" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="43">
@@ -1288,16 +1288,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>46.81994586246633</v>
+        <v>82.05262037650978</v>
       </c>
       <c r="D43" t="n">
-        <v>46.81994586246632</v>
+        <v>66.51841325669794</v>
       </c>
       <c r="E43" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F43" t="n">
-        <v>46.81994586246633</v>
+        <v>82.05262037650978</v>
       </c>
     </row>
     <row r="44">
@@ -1308,16 +1308,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D44" t="n">
-        <v>46.81994586246632</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E44" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F44" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="45">
@@ -1328,16 +1328,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D45" t="n">
-        <v>46.81994586246632</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E45" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F45" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="46">
@@ -1348,16 +1348,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>85.93296348034866</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D46" t="n">
-        <v>49.38473121365431</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E46" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F46" t="n">
-        <v>85.93296348034866</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="47">
@@ -1368,16 +1368,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>64.20960605590588</v>
+        <v>87.81578040440071</v>
       </c>
       <c r="D47" t="n">
-        <v>47.68942887213829</v>
+        <v>66.80657125809249</v>
       </c>
       <c r="E47" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F47" t="n">
-        <v>64.20960605590588</v>
+        <v>87.81578040440071</v>
       </c>
     </row>
     <row r="48">
@@ -1388,16 +1388,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>61.76385527135825</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D48" t="n">
-        <v>47.8613460299056</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E48" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F48" t="n">
-        <v>61.76385527135825</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="49">
@@ -1408,16 +1408,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>46.81994586246633</v>
+        <v>72.16400552415507</v>
       </c>
       <c r="D49" t="n">
-        <v>46.81994586246632</v>
+        <v>66.02398251408022</v>
       </c>
       <c r="E49" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F49" t="n">
-        <v>46.81994586246633</v>
+        <v>72.16400552415507</v>
       </c>
     </row>
     <row r="50">
@@ -1428,16 +1428,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>46.81994586246633</v>
+        <v>99.10493868503009</v>
       </c>
       <c r="D50" t="n">
-        <v>46.81994586246632</v>
+        <v>68.61248534478982</v>
       </c>
       <c r="E50" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F50" t="n">
-        <v>46.81994586246633</v>
+        <v>99.10493868503009</v>
       </c>
     </row>
     <row r="51">
@@ -1448,16 +1448,16 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D51" t="n">
-        <v>46.76629069236729</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E51" t="n">
-        <v>45.74684246048573</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F51" t="n">
-        <v>46.81994586246633</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="52">
@@ -1468,16 +1468,16 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>64.45517715577158</v>
+        <v>88.27770062861914</v>
       </c>
       <c r="D52" t="n">
-        <v>47.54074191683449</v>
+        <v>66.82966726930343</v>
       </c>
       <c r="E52" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F52" t="n">
-        <v>64.45517715577158</v>
+        <v>88.27770062861914</v>
       </c>
     </row>
     <row r="53">
@@ -1488,16 +1488,16 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>66.32776182753886</v>
+        <v>85.41195005406937</v>
       </c>
       <c r="D53" t="n">
-        <v>48.48426767670544</v>
+        <v>67.3207780960154</v>
       </c>
       <c r="E53" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F53" t="n">
-        <v>66.32776182753886</v>
+        <v>85.41195005406937</v>
       </c>
     </row>
     <row r="54">
@@ -1508,16 +1508,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>47.8278774087815</v>
+        <v>87.10935176412497</v>
       </c>
       <c r="D54" t="n">
-        <v>45.46075596050753</v>
+        <v>67.15309336948913</v>
       </c>
       <c r="E54" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F54" t="n">
-        <v>47.8278774087815</v>
+        <v>87.10935176412497</v>
       </c>
     </row>
     <row r="55">
@@ -1528,16 +1528,16 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>57.26379016562567</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D55" t="n">
-        <v>45.41555145405907</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E55" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F55" t="n">
-        <v>57.26379016562567</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="56">
@@ -1548,16 +1548,16 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D56" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E56" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F56" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="57">
@@ -1568,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>44.73891091417056</v>
+        <v>82.46247169221765</v>
       </c>
       <c r="D57" t="n">
-        <v>44.73891091417056</v>
+        <v>66.53890582248334</v>
       </c>
       <c r="E57" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F57" t="n">
-        <v>44.73891091417056</v>
+        <v>82.46247169221765</v>
       </c>
     </row>
     <row r="58">
@@ -1588,16 +1588,16 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>77.91712751386541</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D58" t="n">
-        <v>46.7663076401925</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E58" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F58" t="n">
-        <v>77.91712751386541</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="59">
@@ -1608,16 +1608,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>44.73891091417056</v>
+        <v>78.44384553413843</v>
       </c>
       <c r="D59" t="n">
-        <v>44.73891091417056</v>
+        <v>66.33797451457937</v>
       </c>
       <c r="E59" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F59" t="n">
-        <v>44.73891091417056</v>
+        <v>78.44384553413843</v>
       </c>
     </row>
     <row r="60">
@@ -1628,16 +1628,16 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D60" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828679</v>
       </c>
       <c r="E60" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="F60" t="n">
-        <v>44.73891091417056</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="61">
@@ -1648,16 +1648,16 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>44.73891091417056</v>
+        <v>78.11205382641872</v>
       </c>
       <c r="D61" t="n">
-        <v>44.73891091417056</v>
+        <v>66.23279862669497</v>
       </c>
       <c r="E61" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F61" t="n">
-        <v>44.73891091417056</v>
+        <v>78.11205382641872</v>
       </c>
     </row>
     <row r="62">
@@ -1668,16 +1668,16 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>47.71858108305896</v>
+        <v>78.31719962211785</v>
       </c>
       <c r="D62" t="n">
-        <v>44.88789442261498</v>
+        <v>66.06588331148308</v>
       </c>
       <c r="E62" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F62" t="n">
-        <v>47.71858108305896</v>
+        <v>78.31719962211785</v>
       </c>
     </row>
     <row r="63">
@@ -1688,16 +1688,16 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>48.8890056362216</v>
+        <v>65.70082340828678</v>
       </c>
       <c r="D63" t="n">
-        <v>44.94641565027312</v>
+        <v>64.72637408080411</v>
       </c>
       <c r="E63" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F63" t="n">
-        <v>48.8890056362216</v>
+        <v>65.70082340828678</v>
       </c>
     </row>
     <row r="64">
@@ -1708,16 +1708,16 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>72.04262116704652</v>
+        <v>78.19971578944683</v>
       </c>
       <c r="D64" t="n">
-        <v>46.10409642681436</v>
+        <v>64.91777393588993</v>
       </c>
       <c r="E64" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F64" t="n">
-        <v>72.04262116704652</v>
+        <v>78.19971578944683</v>
       </c>
     </row>
     <row r="65">
@@ -1728,16 +1728,16 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>55.79214766930188</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D65" t="n">
-        <v>44.8788482700709</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E65" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F65" t="n">
-        <v>55.79214766930188</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="66">
@@ -1748,16 +1748,16 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>44.73891091417056</v>
+        <v>74.62563245680948</v>
       </c>
       <c r="D66" t="n">
-        <v>43.50073746860188</v>
+        <v>64.46392411324283</v>
       </c>
       <c r="E66" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F66" t="n">
-        <v>44.73891091417056</v>
+        <v>74.62563245680948</v>
       </c>
     </row>
     <row r="67">
@@ -1768,16 +1768,16 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D67" t="n">
-        <v>42.2625640230332</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E67" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F67" t="n">
-        <v>44.73891091417056</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="68">
@@ -1788,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>44.73891091417056</v>
+        <v>98.60963844081503</v>
       </c>
       <c r="D68" t="n">
-        <v>38.54804368632716</v>
+        <v>66.79250675832461</v>
       </c>
       <c r="E68" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F68" t="n">
-        <v>44.73891091417056</v>
+        <v>98.60963844081503</v>
       </c>
     </row>
     <row r="69">
@@ -1808,16 +1808,16 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>58.78335171075512</v>
+        <v>77.54985888835004</v>
       </c>
       <c r="D69" t="n">
-        <v>37.59936779873148</v>
+        <v>64.75574782866094</v>
       </c>
       <c r="E69" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F69" t="n">
-        <v>58.78335171075512</v>
+        <v>77.54985888835004</v>
       </c>
     </row>
     <row r="70">
@@ -1828,16 +1828,16 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>36.48442127704601</v>
+        <v>67.10288570082355</v>
       </c>
       <c r="D70" t="n">
-        <v>36.48442127704602</v>
+        <v>64.08778677544353</v>
       </c>
       <c r="E70" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F70" t="n">
-        <v>36.48442127704601</v>
+        <v>67.10288570082355</v>
       </c>
     </row>
     <row r="71">
@@ -1848,16 +1848,16 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>36.48442127704601</v>
+        <v>67.75682484189079</v>
       </c>
       <c r="D71" t="n">
-        <v>36.48442127704602</v>
+        <v>64.12048373249691</v>
       </c>
       <c r="E71" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F71" t="n">
-        <v>36.48442127704601</v>
+        <v>67.75682484189079</v>
       </c>
     </row>
     <row r="72">
@@ -1868,16 +1868,16 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>72.81467308623596</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D72" t="n">
-        <v>38.30093386750551</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E72" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F72" t="n">
-        <v>72.81467308623596</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="73">
@@ -1888,16 +1888,16 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>53.3054647715128</v>
+        <v>77.86538865489709</v>
       </c>
       <c r="D73" t="n">
-        <v>37.32547345176935</v>
+        <v>64.62591192314721</v>
       </c>
       <c r="E73" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F73" t="n">
-        <v>53.3054647715128</v>
+        <v>77.86538865489709</v>
       </c>
     </row>
     <row r="74">
@@ -1908,16 +1908,16 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>36.48442127704601</v>
+        <v>75.28370496464861</v>
       </c>
       <c r="D74" t="n">
-        <v>36.19148011487356</v>
+        <v>64.49682773863481</v>
       </c>
       <c r="E74" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F74" t="n">
-        <v>36.48442127704601</v>
+        <v>75.28370496464861</v>
       </c>
     </row>
     <row r="75">
@@ -1928,16 +1928,16 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>63.94622387430329</v>
+        <v>86.51882368222103</v>
       </c>
       <c r="D75" t="n">
-        <v>36.98333848396216</v>
+        <v>65.62385469576226</v>
       </c>
       <c r="E75" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F75" t="n">
-        <v>63.94622387430329</v>
+        <v>86.51882368222103</v>
       </c>
     </row>
     <row r="76">
@@ -1948,16 +1948,16 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D76" t="n">
-        <v>34.02868000059887</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E76" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F76" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="77">
@@ -1968,16 +1968,16 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D77" t="n">
-        <v>31.46701752709169</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E77" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F77" t="n">
-        <v>36.48442127704601</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="78">
@@ -1988,16 +1988,16 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>30.62559803359679</v>
+        <v>70.40107587841474</v>
       </c>
       <c r="D78" t="n">
-        <v>30.58819404057431</v>
+        <v>64.25269628432311</v>
       </c>
       <c r="E78" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F78" t="n">
-        <v>30.62559803359679</v>
+        <v>70.40107587841474</v>
       </c>
     </row>
     <row r="79">
@@ -2008,16 +2008,16 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D79" t="n">
-        <v>30.43857806848436</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E79" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F79" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="80">
@@ -2028,16 +2028,16 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D80" t="n">
-        <v>30.17675011732696</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E80" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F80" t="n">
-        <v>30.62559803359679</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="81">
@@ -2048,16 +2048,16 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>67.01932910452898</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D81" t="n">
-        <v>32.15974531301931</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E81" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F81" t="n">
-        <v>67.01932910452898</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="82">
@@ -2068,16 +2068,16 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>49.84192156033948</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D82" t="n">
-        <v>30.91314233552918</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E82" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F82" t="n">
-        <v>49.84192156033948</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="83">
@@ -2088,16 +2088,16 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>30.68872026109833</v>
+        <v>76.08843215030467</v>
       </c>
       <c r="D83" t="n">
-        <v>29.91807827754463</v>
+        <v>64.53706409791759</v>
       </c>
       <c r="E83" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F83" t="n">
-        <v>30.68872026109833</v>
+        <v>76.08843215030467</v>
       </c>
     </row>
     <row r="84">
@@ -2108,16 +2108,16 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>37.14854949587174</v>
+        <v>88.33435583807969</v>
       </c>
       <c r="D84" t="n">
-        <v>30.24106973928331</v>
+        <v>65.14936028230636</v>
       </c>
       <c r="E84" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F84" t="n">
-        <v>37.14854949587174</v>
+        <v>88.33435583807969</v>
       </c>
     </row>
     <row r="85">
@@ -2128,16 +2128,16 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D85" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E85" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F85" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="86">
@@ -2148,16 +2148,16 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D86" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E86" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F86" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="87">
@@ -2168,16 +2168,16 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D87" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E87" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F87" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="88">
@@ -2188,16 +2188,16 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>53.3740114589837</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D88" t="n">
-        <v>31.05234283743891</v>
+        <v>63.92909735831828</v>
       </c>
       <c r="E88" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="F88" t="n">
-        <v>53.3740114589837</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="89">
@@ -2208,16 +2208,16 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>30.00510654888322</v>
+        <v>81.62051340243185</v>
       </c>
       <c r="D89" t="n">
-        <v>29.88389759193388</v>
+        <v>65.14404597725883</v>
       </c>
       <c r="E89" t="n">
-        <v>29.87751817314707</v>
+        <v>61.24969335302443</v>
       </c>
       <c r="F89" t="n">
-        <v>30.00510654888322</v>
+        <v>81.62051340243185</v>
       </c>
     </row>
     <row r="90">
@@ -2228,16 +2228,16 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>61.38745075051153</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D90" t="n">
-        <v>31.4530148020153</v>
+        <v>63.6611569577889</v>
       </c>
       <c r="E90" t="n">
-        <v>29.87751817314707</v>
+        <v>61.24969335302443</v>
       </c>
       <c r="F90" t="n">
-        <v>61.38745075051153</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="91">
@@ -2248,16 +2248,16 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>32.97288390876381</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D91" t="n">
-        <v>30.0263840815876</v>
+        <v>62.58939535567136</v>
       </c>
       <c r="E91" t="n">
-        <v>29.75947060634098</v>
+        <v>61.24969335302443</v>
       </c>
       <c r="F91" t="n">
-        <v>32.97288390876381</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="92">
@@ -2268,16 +2268,16 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
       <c r="D92" t="n">
-        <v>29.79933238643957</v>
+        <v>61.40799530360853</v>
       </c>
       <c r="E92" t="n">
-        <v>28.66794513941534</v>
+        <v>59.05692435411881</v>
       </c>
       <c r="F92" t="n">
-        <v>29.87751817314707</v>
+        <v>63.92909735831826</v>
       </c>
     </row>
     <row r="93">
@@ -2288,16 +2288,16 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>40.51814199771297</v>
+        <v>61.24969335302443</v>
       </c>
       <c r="D93" t="n">
-        <v>30.24727541262006</v>
+        <v>60.82987322492626</v>
       </c>
       <c r="E93" t="n">
-        <v>28.66794513941534</v>
+        <v>59.05692435411881</v>
       </c>
       <c r="F93" t="n">
-        <v>40.51814199771297</v>
+        <v>61.24969335302443</v>
       </c>
     </row>
     <row r="94">
@@ -2308,16 +2308,16 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>29.87751817314707</v>
+        <v>90.11602705097589</v>
       </c>
       <c r="D94" t="n">
-        <v>29.33466517625133</v>
+        <v>61.87210345340863</v>
       </c>
       <c r="E94" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="F94" t="n">
-        <v>29.87751817314707</v>
+        <v>90.11602705097589</v>
       </c>
     </row>
     <row r="95">
@@ -2328,16 +2328,16 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>30.31851068678928</v>
+        <v>73.30870885472571</v>
       </c>
       <c r="D95" t="n">
-        <v>29.13250733020801</v>
+        <v>60.22956463076567</v>
       </c>
       <c r="E95" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="F95" t="n">
-        <v>30.31851068678928</v>
+        <v>73.30870885472571</v>
       </c>
     </row>
     <row r="96">
@@ -2348,16 +2348,16 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>63.1204862118557</v>
+        <v>75.82030712141784</v>
       </c>
       <c r="D96" t="n">
-        <v>30.60887728642248</v>
+        <v>59.62514273784922</v>
       </c>
       <c r="E96" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="F96" t="n">
-        <v>63.1204862118557</v>
+        <v>75.82030712141784</v>
       </c>
     </row>
     <row r="97">
@@ -2368,16 +2368,16 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>28.66794513941534</v>
+        <v>59.05692435411881</v>
       </c>
       <c r="D97" t="n">
-        <v>28.66794513941534</v>
+        <v>58.14787657149553</v>
       </c>
       <c r="E97" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="F97" t="n">
-        <v>28.66794513941534</v>
+        <v>59.05692435411881</v>
       </c>
     </row>
     <row r="98">
@@ -2388,16 +2388,16 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>28.66794513941534</v>
+        <v>59.44354103819261</v>
       </c>
       <c r="D98" t="n">
-        <v>28.66794513941534</v>
+        <v>57.21160587519586</v>
       </c>
       <c r="E98" t="n">
-        <v>28.66794513941534</v>
+        <v>49.03537157028425</v>
       </c>
       <c r="F98" t="n">
-        <v>28.66794513941534</v>
+        <v>59.44354103819261</v>
       </c>
     </row>
     <row r="99">
@@ -2408,16 +2408,16 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>40.20580216599846</v>
+        <v>70.60213590185839</v>
       </c>
       <c r="D99" t="n">
-        <v>29.2448379907445</v>
+        <v>55.94703461813689</v>
       </c>
       <c r="E99" t="n">
-        <v>28.66794513941534</v>
+        <v>49.03537157028425</v>
       </c>
       <c r="F99" t="n">
-        <v>40.20580216599846</v>
+        <v>70.60213590185839</v>
       </c>
     </row>
     <row r="100">
@@ -2428,16 +2428,16 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>49.53890314940221</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="D100" t="n">
-        <v>29.76646647817769</v>
+        <v>51.90658159679005</v>
       </c>
       <c r="E100" t="n">
-        <v>28.66794513941534</v>
+        <v>49.03537157028425</v>
       </c>
       <c r="F100" t="n">
-        <v>49.53890314940221</v>
+        <v>57.23882878887225</v>
       </c>
     </row>
     <row r="101">
@@ -2448,16 +2448,16 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
       <c r="D101" t="n">
-        <v>28.66794513941534</v>
+        <v>49.85571729214305</v>
       </c>
       <c r="E101" t="n">
-        <v>28.66794513941534</v>
+        <v>49.03537157028425</v>
       </c>
       <c r="F101" t="n">
-        <v>28.66794513941534</v>
+        <v>57.23882878887225</v>
       </c>
     </row>
   </sheetData>
